--- a/health/scores/folds_10f.xlsx
+++ b/health/scores/folds_10f.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="10f_fold_1" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,7 @@
     <sheet name="10f_fold_3" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="10f_fold_4" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="10f_fold_5" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Average" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="33">
   <si>
     <t xml:space="preserve">FID</t>
   </si>
@@ -103,6 +104,27 @@
   <si>
     <t xml:space="preserve">Random</t>
   </si>
+  <si>
+    <t xml:space="preserve">Fold #1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fold #2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fold #3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fold #4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fold #5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected</t>
+  </si>
 </sst>
 </file>
 
@@ -112,7 +134,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -145,16 +167,24 @@
     </font>
     <font>
       <sz val="13"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -297,7 +327,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -351,7 +381,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>10f_fold_1!$P$11</c:f>
+              <c:f>10f_fold_1!$P$11:$P$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -370,6 +400,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -460,7 +491,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>10f_fold_1!$Q$11</c:f>
+              <c:f>10f_fold_1!$Q$11:$Q$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -479,6 +510,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -566,11 +598,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="14527900"/>
-        <c:axId val="47784636"/>
+        <c:axId val="66851374"/>
+        <c:axId val="72399840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="14527900"/>
+        <c:axId val="66851374"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -643,14 +675,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47784636"/>
+        <c:crossAx val="72399840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47784636"/>
+        <c:axId val="72399840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -703,6 +735,290 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66851374"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Average!$B$3:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Average!$M$3:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Average!$B$3:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Average!$N$3:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.14159292035398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.14159292035398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.14159292035398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.14159292035398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.14159292035398</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.14159292035398</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.14159292035398</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.14159292035398</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.14159292035398</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.72566371681416</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="52678449"/>
+        <c:axId val="80898915"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="52678449"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -732,7 +1048,58 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14527900"/>
+        <c:crossAx val="80898915"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="80898915"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="52678449"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -780,9 +1147,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>444240</xdr:colOff>
+      <xdr:colOff>443520</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>48600</xdr:rowOff>
+      <xdr:rowOff>47880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -790,7 +1157,42 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10886400" y="1716120"/>
+        <a:off x="10543680" y="1716120"/>
+        <a:ext cx="5587200" cy="3238920"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>451440</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>56160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>610560</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>44640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3651840" y="2634120"/>
         <a:ext cx="5759640" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
@@ -811,13 +1213,13 @@
   </sheetPr>
   <dimension ref="A1:T114"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O27" activeCellId="0" sqref="O27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P12" activeCellId="0" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -897,7 +1299,7 @@
       </c>
       <c r="L2" s="0" t="n">
         <f aca="false">SUM(B2:K2)</f>
-        <v>2.70378836275029</v>
+        <v>2.7037883627503</v>
       </c>
       <c r="M2" s="0" t="n">
         <v>0</v>
@@ -994,7 +1396,7 @@
       </c>
       <c r="L4" s="0" t="n">
         <f aca="false">SUM(B4:K4)</f>
-        <v>2.3772077023879</v>
+        <v>2.37720770238791</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>1</v>
@@ -1091,7 +1493,7 @@
       </c>
       <c r="L6" s="0" t="n">
         <f aca="false">SUM(B6:K6)</f>
-        <v>1.85911909016209</v>
+        <v>1.8591190901621</v>
       </c>
       <c r="M6" s="0" t="n">
         <v>1</v>
@@ -1154,7 +1556,7 @@
       </c>
       <c r="L7" s="0" t="n">
         <f aca="false">SUM(B7:K7)</f>
-        <v>1.64454109779203</v>
+        <v>1.64454109779204</v>
       </c>
       <c r="M7" s="0" t="n">
         <v>0</v>
@@ -1353,7 +1755,7 @@
       </c>
       <c r="L11" s="0" t="n">
         <f aca="false">SUM(B11:K11)</f>
-        <v>1.12351188346842</v>
+        <v>1.12351188346843</v>
       </c>
       <c r="M11" s="0" t="n">
         <v>0</v>
@@ -1457,7 +1859,7 @@
       </c>
       <c r="L13" s="0" t="n">
         <f aca="false">SUM(B13:K13)</f>
-        <v>0.975404872434424</v>
+        <v>0.975404872434422</v>
       </c>
       <c r="M13" s="0" t="n">
         <v>0</v>
@@ -1510,7 +1912,7 @@
       </c>
       <c r="L14" s="0" t="n">
         <f aca="false">SUM(B14:K14)</f>
-        <v>0.892636867792651</v>
+        <v>0.89263686779265</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>0</v>
@@ -1563,7 +1965,7 @@
       </c>
       <c r="L15" s="0" t="n">
         <f aca="false">SUM(B15:K15)</f>
-        <v>0.85423502605764</v>
+        <v>0.854235026057638</v>
       </c>
       <c r="M15" s="0" t="n">
         <v>1</v>
@@ -1616,7 +2018,7 @@
       </c>
       <c r="L16" s="0" t="n">
         <f aca="false">SUM(B16:K16)</f>
-        <v>0.827124032602986</v>
+        <v>0.827124032602991</v>
       </c>
       <c r="M16" s="0" t="n">
         <v>0</v>
@@ -1669,7 +2071,7 @@
       </c>
       <c r="L17" s="0" t="n">
         <f aca="false">SUM(B17:K17)</f>
-        <v>0.75714045542561</v>
+        <v>0.757140455425613</v>
       </c>
       <c r="M17" s="0" t="n">
         <v>0</v>
@@ -1828,7 +2230,7 @@
       </c>
       <c r="L20" s="0" t="n">
         <f aca="false">SUM(B20:K20)</f>
-        <v>0.707550929960749</v>
+        <v>0.707550929960752</v>
       </c>
       <c r="M20" s="0" t="n">
         <v>0</v>
@@ -1934,7 +2336,7 @@
       </c>
       <c r="L22" s="0" t="n">
         <f aca="false">SUM(B22:K22)</f>
-        <v>0.596249016927217</v>
+        <v>0.596249016927216</v>
       </c>
       <c r="M22" s="0" t="n">
         <v>1</v>
@@ -1976,7 +2378,7 @@
       </c>
       <c r="L23" s="0" t="n">
         <f aca="false">SUM(B23:K23)</f>
-        <v>0.535265135652562</v>
+        <v>0.535265135652561</v>
       </c>
       <c r="M23" s="0" t="n">
         <v>1</v>
@@ -2102,7 +2504,7 @@
       </c>
       <c r="L26" s="0" t="n">
         <f aca="false">SUM(B26:K26)</f>
-        <v>0.469615149372545</v>
+        <v>0.469615149372549</v>
       </c>
       <c r="M26" s="0" t="n">
         <v>0</v>
@@ -2144,7 +2546,7 @@
       </c>
       <c r="L27" s="0" t="n">
         <f aca="false">SUM(B27:K27)</f>
-        <v>0.457208046487496</v>
+        <v>0.457208046487495</v>
       </c>
       <c r="M27" s="0" t="n">
         <v>1</v>
@@ -2228,7 +2630,7 @@
       </c>
       <c r="L29" s="0" t="n">
         <f aca="false">SUM(B29:K29)</f>
-        <v>0.449701998704831</v>
+        <v>0.44970199870483</v>
       </c>
       <c r="M29" s="0" t="n">
         <v>0</v>
@@ -2270,7 +2672,7 @@
       </c>
       <c r="L30" s="0" t="n">
         <f aca="false">SUM(B30:K30)</f>
-        <v>0.395653840592966</v>
+        <v>0.395653840592965</v>
       </c>
       <c r="M30" s="0" t="n">
         <v>0</v>
@@ -2312,7 +2714,7 @@
       </c>
       <c r="L31" s="0" t="n">
         <f aca="false">SUM(B31:K31)</f>
-        <v>0.360047131163912</v>
+        <v>0.360047131163911</v>
       </c>
       <c r="M31" s="0" t="n">
         <v>0</v>
@@ -2438,7 +2840,7 @@
       </c>
       <c r="L34" s="0" t="n">
         <f aca="false">SUM(B34:K34)</f>
-        <v>0.271356346290851</v>
+        <v>0.27135634629085</v>
       </c>
       <c r="M34" s="0" t="n">
         <v>0</v>
@@ -2522,7 +2924,7 @@
       </c>
       <c r="L36" s="0" t="n">
         <f aca="false">SUM(B36:K36)</f>
-        <v>0.0785220089416039</v>
+        <v>0.0785220089416034</v>
       </c>
       <c r="M36" s="0" t="n">
         <v>1</v>
@@ -2564,7 +2966,7 @@
       </c>
       <c r="L37" s="0" t="n">
         <f aca="false">SUM(B37:K37)</f>
-        <v>0.0707611699566005</v>
+        <v>0.0707611699565995</v>
       </c>
       <c r="M37" s="0" t="n">
         <v>0</v>
@@ -2606,7 +3008,7 @@
       </c>
       <c r="L38" s="0" t="n">
         <f aca="false">SUM(B38:K38)</f>
-        <v>0.0707611699566005</v>
+        <v>0.0707611699565995</v>
       </c>
       <c r="M38" s="0" t="n">
         <v>1</v>
@@ -2648,7 +3050,7 @@
       </c>
       <c r="L39" s="0" t="n">
         <f aca="false">SUM(B39:K39)</f>
-        <v>0.0707611699566005</v>
+        <v>0.0707611699565995</v>
       </c>
       <c r="M39" s="0" t="n">
         <v>0</v>
@@ -2690,7 +3092,7 @@
       </c>
       <c r="L40" s="0" t="n">
         <f aca="false">SUM(B40:K40)</f>
-        <v>0.0704405613000869</v>
+        <v>0.0704405613000861</v>
       </c>
       <c r="M40" s="0" t="n">
         <v>0</v>
@@ -2732,7 +3134,7 @@
       </c>
       <c r="L41" s="0" t="n">
         <f aca="false">SUM(B41:K41)</f>
-        <v>0.0244738508297386</v>
+        <v>0.0244738508297385</v>
       </c>
       <c r="M41" s="0" t="n">
         <v>0</v>
@@ -2774,7 +3176,7 @@
       </c>
       <c r="L42" s="0" t="n">
         <f aca="false">SUM(B42:K42)</f>
-        <v>-0.0504086764201842</v>
+        <v>-0.050408676420185</v>
       </c>
       <c r="M42" s="0" t="n">
         <v>0</v>
@@ -2816,7 +3218,7 @@
       </c>
       <c r="L43" s="0" t="n">
         <f aca="false">SUM(B43:K43)</f>
-        <v>-0.0607223840641762</v>
+        <v>-0.0607223840641763</v>
       </c>
       <c r="M43" s="0" t="n">
         <v>0</v>
@@ -2900,7 +3302,7 @@
       </c>
       <c r="L45" s="0" t="n">
         <f aca="false">SUM(B45:K45)</f>
-        <v>-0.0999982018850451</v>
+        <v>-0.0999982018850457</v>
       </c>
       <c r="M45" s="0" t="n">
         <v>0</v>
@@ -2942,7 +3344,7 @@
       </c>
       <c r="L46" s="0" t="n">
         <f aca="false">SUM(B46:K46)</f>
-        <v>-0.0999982018850451</v>
+        <v>-0.0999982018850457</v>
       </c>
       <c r="M46" s="0" t="n">
         <v>0</v>
@@ -3068,7 +3470,7 @@
       </c>
       <c r="L49" s="0" t="n">
         <f aca="false">SUM(B49:K49)</f>
-        <v>-0.207269402286561</v>
+        <v>-0.207269402286562</v>
       </c>
       <c r="M49" s="0" t="n">
         <v>0</v>
@@ -3110,7 +3512,7 @@
       </c>
       <c r="L50" s="0" t="n">
         <f aca="false">SUM(B50:K50)</f>
-        <v>-0.227146699422235</v>
+        <v>-0.227146699422237</v>
       </c>
       <c r="M50" s="0" t="n">
         <v>1</v>
@@ -3194,7 +3596,7 @@
       </c>
       <c r="L52" s="0" t="n">
         <f aca="false">SUM(B52:K52)</f>
-        <v>-0.300593378219296</v>
+        <v>-0.300593378219297</v>
       </c>
       <c r="M52" s="0" t="n">
         <v>0</v>
@@ -3236,7 +3638,7 @@
       </c>
       <c r="L53" s="0" t="n">
         <f aca="false">SUM(B53:K53)</f>
-        <v>-0.300593378219296</v>
+        <v>-0.300593378219297</v>
       </c>
       <c r="M53" s="0" t="n">
         <v>0</v>
@@ -3278,7 +3680,7 @@
       </c>
       <c r="L54" s="0" t="n">
         <f aca="false">SUM(B54:K54)</f>
-        <v>-0.300593378219296</v>
+        <v>-0.300593378219297</v>
       </c>
       <c r="M54" s="0" t="n">
         <v>1</v>
@@ -3320,7 +3722,7 @@
       </c>
       <c r="L55" s="0" t="n">
         <f aca="false">SUM(B55:K55)</f>
-        <v>-0.300593378219296</v>
+        <v>-0.300593378219297</v>
       </c>
       <c r="M55" s="0" t="n">
         <v>1</v>
@@ -3362,7 +3764,7 @@
       </c>
       <c r="L56" s="0" t="n">
         <f aca="false">SUM(B56:K56)</f>
-        <v>-0.328439248663346</v>
+        <v>-0.328439248663347</v>
       </c>
       <c r="M56" s="0" t="n">
         <v>0</v>
@@ -3404,7 +3806,7 @@
       </c>
       <c r="L57" s="0" t="n">
         <f aca="false">SUM(B57:K57)</f>
-        <v>-0.346880697346157</v>
+        <v>-0.346880697346158</v>
       </c>
       <c r="M57" s="0" t="n">
         <v>0</v>
@@ -3488,7 +3890,7 @@
       </c>
       <c r="L59" s="0" t="n">
         <f aca="false">SUM(B59:K59)</f>
-        <v>-0.406135298610181</v>
+        <v>-0.406135298610178</v>
       </c>
       <c r="M59" s="0" t="n">
         <v>1</v>
@@ -3530,7 +3932,7 @@
       </c>
       <c r="L60" s="0" t="n">
         <f aca="false">SUM(B60:K60)</f>
-        <v>-0.42176322459608</v>
+        <v>-0.421763224596081</v>
       </c>
       <c r="M60" s="0" t="n">
         <v>0</v>
@@ -3656,7 +4058,7 @@
       </c>
       <c r="L63" s="0" t="n">
         <f aca="false">SUM(B63:K63)</f>
-        <v>-0.546144888958734</v>
+        <v>-0.546144888958735</v>
       </c>
       <c r="M63" s="0" t="n">
         <v>0</v>
@@ -3698,7 +4100,7 @@
       </c>
       <c r="L64" s="0" t="n">
         <f aca="false">SUM(B64:K64)</f>
-        <v>-0.614324507556947</v>
+        <v>-0.614324507556948</v>
       </c>
       <c r="M64" s="0" t="n">
         <v>0</v>
@@ -3740,7 +4142,7 @@
       </c>
       <c r="L65" s="0" t="n">
         <f aca="false">SUM(B65:K65)</f>
-        <v>-0.649931216986001</v>
+        <v>-0.649931216986002</v>
       </c>
       <c r="M65" s="0" t="n">
         <v>0</v>
@@ -3782,7 +4184,7 @@
       </c>
       <c r="L66" s="0" t="n">
         <f aca="false">SUM(B66:K66)</f>
-        <v>-0.671773367982523</v>
+        <v>-0.671773367982524</v>
       </c>
       <c r="M66" s="0" t="n">
         <v>0</v>
@@ -3824,7 +4226,7 @@
       </c>
       <c r="L67" s="0" t="n">
         <f aca="false">SUM(B67:K67)</f>
-        <v>-0.671773367982523</v>
+        <v>-0.671773367982524</v>
       </c>
       <c r="M67" s="0" t="n">
         <v>0</v>
@@ -3866,7 +4268,7 @@
       </c>
       <c r="L68" s="0" t="n">
         <f aca="false">SUM(B68:K68)</f>
-        <v>-0.671773367982523</v>
+        <v>-0.671773367982524</v>
       </c>
       <c r="M68" s="0" t="n">
         <v>1</v>
@@ -4286,7 +4688,7 @@
       </c>
       <c r="L78" s="0" t="n">
         <f aca="false">SUM(B78:K78)</f>
-        <v>-0.867909911669769</v>
+        <v>-0.86790991166977</v>
       </c>
       <c r="M78" s="0" t="n">
         <v>0</v>
@@ -4328,7 +4730,7 @@
       </c>
       <c r="L79" s="0" t="n">
         <f aca="false">SUM(B79:K79)</f>
-        <v>-0.989079758046554</v>
+        <v>-0.989079758046555</v>
       </c>
       <c r="M79" s="0" t="n">
         <v>0</v>
@@ -4370,7 +4772,7 @@
       </c>
       <c r="L80" s="0" t="n">
         <f aca="false">SUM(B80:K80)</f>
-        <v>-0.989079758046554</v>
+        <v>-0.989079758046555</v>
       </c>
       <c r="M80" s="0" t="n">
         <v>1</v>
@@ -4412,7 +4814,7 @@
       </c>
       <c r="L81" s="0" t="n">
         <f aca="false">SUM(B81:K81)</f>
-        <v>-0.989079758046554</v>
+        <v>-0.989079758046555</v>
       </c>
       <c r="M81" s="0" t="n">
         <v>0</v>
@@ -5824,12 +6226,12 @@
   <dimension ref="A1:T114"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
+      <selection pane="topLeft" activeCell="P12" activeCellId="0" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6006,7 +6408,7 @@
       </c>
       <c r="L4" s="0" t="n">
         <f aca="false">SUM(B4:K4)</f>
-        <v>1.7138359302045</v>
+        <v>1.71383593020451</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>0</v>
@@ -6522,7 +6924,7 @@
       </c>
       <c r="L14" s="0" t="n">
         <f aca="false">SUM(B14:K14)</f>
-        <v>0.887246396237263</v>
+        <v>0.887246396237262</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>1</v>
@@ -6575,7 +6977,7 @@
       </c>
       <c r="L15" s="0" t="n">
         <f aca="false">SUM(B15:K15)</f>
-        <v>0.884990984032936</v>
+        <v>0.884990984032935</v>
       </c>
       <c r="M15" s="0" t="n">
         <v>0</v>
@@ -6628,7 +7030,7 @@
       </c>
       <c r="L16" s="0" t="n">
         <f aca="false">SUM(B16:K16)</f>
-        <v>0.822249843342127</v>
+        <v>0.822249843342133</v>
       </c>
       <c r="M16" s="0" t="n">
         <v>1</v>
@@ -6681,7 +7083,7 @@
       </c>
       <c r="L17" s="0" t="n">
         <f aca="false">SUM(B17:K17)</f>
-        <v>0.818647218150369</v>
+        <v>0.818647218150374</v>
       </c>
       <c r="M17" s="0" t="n">
         <v>0</v>
@@ -6946,7 +7348,7 @@
       </c>
       <c r="L22" s="0" t="n">
         <f aca="false">SUM(B22:K22)</f>
-        <v>0.694203610192226</v>
+        <v>0.694203610192225</v>
       </c>
       <c r="M22" s="0" t="n">
         <v>0</v>
@@ -6988,7 +7390,7 @@
       </c>
       <c r="L23" s="0" t="n">
         <f aca="false">SUM(B23:K23)</f>
-        <v>0.688780018071499</v>
+        <v>0.688780018071503</v>
       </c>
       <c r="M23" s="0" t="n">
         <v>0</v>
@@ -7114,7 +7516,7 @@
       </c>
       <c r="L26" s="0" t="n">
         <f aca="false">SUM(B26:K26)</f>
-        <v>0.562071359038386</v>
+        <v>0.562071359038387</v>
       </c>
       <c r="M26" s="0" t="n">
         <v>0</v>
@@ -7156,7 +7558,7 @@
       </c>
       <c r="L27" s="0" t="n">
         <f aca="false">SUM(B27:K27)</f>
-        <v>0.562071359038386</v>
+        <v>0.562071359038387</v>
       </c>
       <c r="M27" s="0" t="n">
         <v>0</v>
@@ -7492,7 +7894,7 @@
       </c>
       <c r="L35" s="0" t="n">
         <f aca="false">SUM(B35:K35)</f>
-        <v>0.31572843236739</v>
+        <v>0.315728432367398</v>
       </c>
       <c r="M35" s="0" t="n">
         <v>1</v>
@@ -7576,7 +7978,7 @@
       </c>
       <c r="L37" s="0" t="n">
         <f aca="false">SUM(B37:K37)</f>
-        <v>0.244985859820535</v>
+        <v>0.244985859820536</v>
       </c>
       <c r="M37" s="0" t="n">
         <v>0</v>
@@ -7618,7 +8020,7 @@
       </c>
       <c r="L38" s="0" t="n">
         <f aca="false">SUM(B38:K38)</f>
-        <v>0.244985859820535</v>
+        <v>0.244985859820536</v>
       </c>
       <c r="M38" s="0" t="n">
         <v>0</v>
@@ -7660,7 +8062,7 @@
       </c>
       <c r="L39" s="0" t="n">
         <f aca="false">SUM(B39:K39)</f>
-        <v>0.224696233189773</v>
+        <v>0.224696233189774</v>
       </c>
       <c r="M39" s="0" t="n">
         <v>0</v>
@@ -7702,7 +8104,7 @@
       </c>
       <c r="L40" s="0" t="n">
         <f aca="false">SUM(B40:K40)</f>
-        <v>0.154186486174961</v>
+        <v>0.154186486174966</v>
       </c>
       <c r="M40" s="0" t="n">
         <v>1</v>
@@ -7744,7 +8146,7 @@
       </c>
       <c r="L41" s="0" t="n">
         <f aca="false">SUM(B41:K41)</f>
-        <v>0.00205940941444147</v>
+        <v>0.00205940941444149</v>
       </c>
       <c r="M41" s="0" t="n">
         <v>0</v>
@@ -7786,7 +8188,7 @@
       </c>
       <c r="L42" s="0" t="n">
         <f aca="false">SUM(B42:K42)</f>
-        <v>-0.0190853698780226</v>
+        <v>-0.0190853698780232</v>
       </c>
       <c r="M42" s="0" t="n">
         <v>0</v>
@@ -7828,7 +8230,7 @@
       </c>
       <c r="L43" s="0" t="n">
         <f aca="false">SUM(B43:K43)</f>
-        <v>-0.0190853698780226</v>
+        <v>-0.0190853698780232</v>
       </c>
       <c r="M43" s="0" t="n">
         <v>0</v>
@@ -7870,7 +8272,7 @@
       </c>
       <c r="L44" s="0" t="n">
         <f aca="false">SUM(B44:K44)</f>
-        <v>-0.0965552471603236</v>
+        <v>-0.0965552471603241</v>
       </c>
       <c r="M44" s="0" t="n">
         <v>0</v>
@@ -7912,7 +8314,7 @@
       </c>
       <c r="L45" s="0" t="n">
         <f aca="false">SUM(B45:K45)</f>
-        <v>-0.0965552471603236</v>
+        <v>-0.0965552471603241</v>
       </c>
       <c r="M45" s="0" t="n">
         <v>0</v>
@@ -7954,7 +8356,7 @@
       </c>
       <c r="L46" s="0" t="n">
         <f aca="false">SUM(B46:K46)</f>
-        <v>-0.0965552471603236</v>
+        <v>-0.0965552471603241</v>
       </c>
       <c r="M46" s="0" t="n">
         <v>0</v>
@@ -7996,7 +8398,7 @@
       </c>
       <c r="L47" s="0" t="n">
         <f aca="false">SUM(B47:K47)</f>
-        <v>-0.0965552471603236</v>
+        <v>-0.0965552471603241</v>
       </c>
       <c r="M47" s="0" t="n">
         <v>0</v>
@@ -8038,7 +8440,7 @@
       </c>
       <c r="L48" s="0" t="n">
         <f aca="false">SUM(B48:K48)</f>
-        <v>-0.147367656710523</v>
+        <v>-0.147367656710524</v>
       </c>
       <c r="M48" s="0" t="n">
         <v>1</v>
@@ -8080,7 +8482,7 @@
       </c>
       <c r="L49" s="0" t="n">
         <f aca="false">SUM(B49:K49)</f>
-        <v>-0.151217621031862</v>
+        <v>-0.151217621031861</v>
       </c>
       <c r="M49" s="0" t="n">
         <v>1</v>
@@ -8248,7 +8650,7 @@
       </c>
       <c r="L53" s="0" t="n">
         <f aca="false">SUM(B53:K53)</f>
-        <v>-0.178620200214628</v>
+        <v>-0.178620200214629</v>
       </c>
       <c r="M53" s="0" t="n">
         <v>0</v>
@@ -8290,7 +8692,7 @@
       </c>
       <c r="L54" s="0" t="n">
         <f aca="false">SUM(B54:K54)</f>
-        <v>-0.210130678937878</v>
+        <v>-0.210130678937873</v>
       </c>
       <c r="M54" s="0" t="n">
         <v>1</v>
@@ -8332,7 +8734,7 @@
       </c>
       <c r="L55" s="0" t="n">
         <f aca="false">SUM(B55:K55)</f>
-        <v>-0.228687498314163</v>
+        <v>-0.228687498314162</v>
       </c>
       <c r="M55" s="0" t="n">
         <v>1</v>
@@ -8374,7 +8776,7 @@
       </c>
       <c r="L56" s="0" t="n">
         <f aca="false">SUM(B56:K56)</f>
-        <v>-0.228687498314163</v>
+        <v>-0.228687498314162</v>
       </c>
       <c r="M56" s="0" t="n">
         <v>0</v>
@@ -8542,7 +8944,7 @@
       </c>
       <c r="L60" s="0" t="n">
         <f aca="false">SUM(B60:K60)</f>
-        <v>-0.340420081626203</v>
+        <v>-0.340420081626202</v>
       </c>
       <c r="M60" s="0" t="n">
         <v>0</v>
@@ -8584,7 +8986,7 @@
       </c>
       <c r="L61" s="0" t="n">
         <f aca="false">SUM(B61:K61)</f>
-        <v>-0.371672625130307</v>
+        <v>-0.371672625130306</v>
       </c>
       <c r="M61" s="0" t="n">
         <v>0</v>
@@ -8626,7 +9028,7 @@
       </c>
       <c r="L62" s="0" t="n">
         <f aca="false">SUM(B62:K62)</f>
-        <v>-0.391824953842527</v>
+        <v>-0.391824953842526</v>
       </c>
       <c r="M62" s="0" t="n">
         <v>0</v>
@@ -8836,7 +9238,7 @@
       </c>
       <c r="L67" s="0" t="n">
         <f aca="false">SUM(B67:K67)</f>
-        <v>-0.483997671108472</v>
+        <v>-0.483997671108471</v>
       </c>
       <c r="M67" s="0" t="n">
         <v>0</v>
@@ -8920,7 +9322,7 @@
       </c>
       <c r="L69" s="0" t="n">
         <f aca="false">SUM(B69:K69)</f>
-        <v>-0.759025705133612</v>
+        <v>-0.759025705133611</v>
       </c>
       <c r="M69" s="0" t="n">
         <v>0</v>
@@ -8962,7 +9364,7 @@
       </c>
       <c r="L70" s="0" t="n">
         <f aca="false">SUM(B70:K70)</f>
-        <v>-0.793721861254007</v>
+        <v>-0.793721861254006</v>
       </c>
       <c r="M70" s="0" t="n">
         <v>0</v>
@@ -9004,7 +9406,7 @@
       </c>
       <c r="L71" s="0" t="n">
         <f aca="false">SUM(B71:K71)</f>
-        <v>-0.798136198906564</v>
+        <v>-0.798136198906563</v>
       </c>
       <c r="M71" s="0" t="n">
         <v>0</v>
@@ -9046,7 +9448,7 @@
       </c>
       <c r="L72" s="0" t="n">
         <f aca="false">SUM(B72:K72)</f>
-        <v>-0.798136198906564</v>
+        <v>-0.798136198906563</v>
       </c>
       <c r="M72" s="0" t="n">
         <v>0</v>
@@ -9088,7 +9490,7 @@
       </c>
       <c r="L73" s="0" t="n">
         <f aca="false">SUM(B73:K73)</f>
-        <v>-0.814866640546471</v>
+        <v>-0.81486664054647</v>
       </c>
       <c r="M73" s="0" t="n">
         <v>0</v>
@@ -10835,12 +11237,12 @@
   <dimension ref="A1:T114"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
+      <selection pane="topLeft" activeCell="P12" activeCellId="0" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11066,7 +11468,7 @@
       </c>
       <c r="L5" s="0" t="n">
         <f aca="false">SUM(B5:K5)</f>
-        <v>1.27414603967536</v>
+        <v>1.27414603967535</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>0</v>
@@ -11114,7 +11516,7 @@
       </c>
       <c r="L6" s="0" t="n">
         <f aca="false">SUM(B6:K6)</f>
-        <v>1.27414603967536</v>
+        <v>1.27414603967535</v>
       </c>
       <c r="M6" s="0" t="n">
         <v>1</v>
@@ -11334,7 +11736,7 @@
       </c>
       <c r="L10" s="0" t="n">
         <f aca="false">SUM(B10:K10)</f>
-        <v>0.712188223999357</v>
+        <v>0.712188223999352</v>
       </c>
       <c r="M10" s="0" t="n">
         <v>0</v>
@@ -11427,7 +11829,7 @@
       </c>
       <c r="L12" s="0" t="n">
         <f aca="false">SUM(B12:K12)</f>
-        <v>0.539177575251294</v>
+        <v>0.539177575251293</v>
       </c>
       <c r="M12" s="0" t="n">
         <v>0</v>
@@ -11480,7 +11882,7 @@
       </c>
       <c r="L13" s="0" t="n">
         <f aca="false">SUM(B13:K13)</f>
-        <v>0.520948724272109</v>
+        <v>0.520948724272108</v>
       </c>
       <c r="M13" s="0" t="n">
         <v>1</v>
@@ -11533,7 +11935,7 @@
       </c>
       <c r="L14" s="0" t="n">
         <f aca="false">SUM(B14:K14)</f>
-        <v>0.506977645278549</v>
+        <v>0.506977645278548</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>1</v>
@@ -11586,7 +11988,7 @@
       </c>
       <c r="L15" s="0" t="n">
         <f aca="false">SUM(B15:K15)</f>
-        <v>0.433286978879255</v>
+        <v>0.433286978879253</v>
       </c>
       <c r="M15" s="0" t="n">
         <v>1</v>
@@ -11745,7 +12147,7 @@
       </c>
       <c r="L18" s="0" t="n">
         <f aca="false">SUM(B18:K18)</f>
-        <v>0.339173513776831</v>
+        <v>0.33917351377683</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>0</v>
@@ -12083,7 +12485,7 @@
       </c>
       <c r="L25" s="0" t="n">
         <f aca="false">SUM(B25:K25)</f>
-        <v>0.0503229489824597</v>
+        <v>0.0503229489824593</v>
       </c>
       <c r="M25" s="0" t="n">
         <v>0</v>
@@ -12125,7 +12527,7 @@
       </c>
       <c r="L26" s="0" t="n">
         <f aca="false">SUM(B26:K26)</f>
-        <v>-0.00378200573827936</v>
+        <v>-0.00378200573827944</v>
       </c>
       <c r="M26" s="0" t="n">
         <v>1</v>
@@ -12167,7 +12569,7 @@
       </c>
       <c r="L27" s="0" t="n">
         <f aca="false">SUM(B27:K27)</f>
-        <v>-0.0821556400015906</v>
+        <v>-0.0821556400015915</v>
       </c>
       <c r="M27" s="0" t="n">
         <v>0</v>
@@ -12209,7 +12611,7 @@
       </c>
       <c r="L28" s="0" t="n">
         <f aca="false">SUM(B28:K28)</f>
-        <v>-0.0941026511333742</v>
+        <v>-0.0941026511333749</v>
       </c>
       <c r="M28" s="0" t="n">
         <v>0</v>
@@ -12251,7 +12653,7 @@
       </c>
       <c r="L29" s="0" t="n">
         <f aca="false">SUM(B29:K29)</f>
-        <v>-0.0941026511333742</v>
+        <v>-0.0941026511333749</v>
       </c>
       <c r="M29" s="0" t="n">
         <v>1</v>
@@ -12293,7 +12695,7 @@
       </c>
       <c r="L30" s="0" t="n">
         <f aca="false">SUM(B30:K30)</f>
-        <v>-0.0941026511333742</v>
+        <v>-0.0941026511333749</v>
       </c>
       <c r="M30" s="0" t="n">
         <v>0</v>
@@ -12419,7 +12821,7 @@
       </c>
       <c r="L33" s="0" t="n">
         <f aca="false">SUM(B33:K33)</f>
-        <v>-0.120394120658455</v>
+        <v>-0.120394120658456</v>
       </c>
       <c r="M33" s="0" t="n">
         <v>0</v>
@@ -12461,7 +12863,7 @@
       </c>
       <c r="L34" s="0" t="n">
         <f aca="false">SUM(B34:K34)</f>
-        <v>-0.145126817419448</v>
+        <v>-0.145126817419449</v>
       </c>
       <c r="M34" s="0" t="n">
         <v>0</v>
@@ -12545,7 +12947,7 @@
       </c>
       <c r="L36" s="0" t="n">
         <f aca="false">SUM(B36:K36)</f>
-        <v>-0.17348768038794</v>
+        <v>-0.173487680387941</v>
       </c>
       <c r="M36" s="0" t="n">
         <v>0</v>
@@ -12587,7 +12989,7 @@
       </c>
       <c r="L37" s="0" t="n">
         <f aca="false">SUM(B37:K37)</f>
-        <v>-0.17348768038794</v>
+        <v>-0.173487680387941</v>
       </c>
       <c r="M37" s="0" t="n">
         <v>0</v>
@@ -12629,7 +13031,7 @@
       </c>
       <c r="L38" s="0" t="n">
         <f aca="false">SUM(B38:K38)</f>
-        <v>-0.184249298155373</v>
+        <v>-0.184249298155374</v>
       </c>
       <c r="M38" s="0" t="n">
         <v>0</v>
@@ -12671,7 +13073,7 @@
       </c>
       <c r="L39" s="0" t="n">
         <f aca="false">SUM(B39:K39)</f>
-        <v>-0.189943661010644</v>
+        <v>-0.189943661010645</v>
       </c>
       <c r="M39" s="0" t="n">
         <v>0</v>
@@ -12713,7 +13115,7 @@
       </c>
       <c r="L40" s="0" t="n">
         <f aca="false">SUM(B40:K40)</f>
-        <v>-0.198220377148933</v>
+        <v>-0.198220377148934</v>
       </c>
       <c r="M40" s="0" t="n">
         <v>0</v>
@@ -12755,7 +13157,7 @@
       </c>
       <c r="L41" s="0" t="n">
         <f aca="false">SUM(B41:K41)</f>
-        <v>-0.224511846674014</v>
+        <v>-0.224511846674015</v>
       </c>
       <c r="M41" s="0" t="n">
         <v>0</v>
@@ -12797,7 +13199,7 @@
       </c>
       <c r="L42" s="0" t="n">
         <f aca="false">SUM(B42:K42)</f>
-        <v>-0.243037220740129</v>
+        <v>-0.24303722074013</v>
       </c>
       <c r="M42" s="0" t="n">
         <v>0</v>
@@ -12839,7 +13241,7 @@
       </c>
       <c r="L43" s="0" t="n">
         <f aca="false">SUM(B43:K43)</f>
-        <v>-0.243037220740129</v>
+        <v>-0.24303722074013</v>
       </c>
       <c r="M43" s="0" t="n">
         <v>0</v>
@@ -12881,7 +13283,7 @@
       </c>
       <c r="L44" s="0" t="n">
         <f aca="false">SUM(B44:K44)</f>
-        <v>-0.243037220740129</v>
+        <v>-0.24303722074013</v>
       </c>
       <c r="M44" s="0" t="n">
         <v>0</v>
@@ -12965,7 +13367,7 @@
       </c>
       <c r="L46" s="0" t="n">
         <f aca="false">SUM(B46:K46)</f>
-        <v>-0.263634327409939</v>
+        <v>-0.26363432740994</v>
       </c>
       <c r="M46" s="0" t="n">
         <v>0</v>
@@ -13007,7 +13409,7 @@
       </c>
       <c r="L47" s="0" t="n">
         <f aca="false">SUM(B47:K47)</f>
-        <v>-0.277605406403499</v>
+        <v>-0.2776054064035</v>
       </c>
       <c r="M47" s="0" t="n">
         <v>0</v>
@@ -13049,7 +13451,7 @@
       </c>
       <c r="L48" s="0" t="n">
         <f aca="false">SUM(B48:K48)</f>
-        <v>-0.277605406403499</v>
+        <v>-0.2776054064035</v>
       </c>
       <c r="M48" s="0" t="n">
         <v>0</v>
@@ -13091,7 +13493,7 @@
       </c>
       <c r="L49" s="0" t="n">
         <f aca="false">SUM(B49:K49)</f>
-        <v>-0.277605406403499</v>
+        <v>-0.2776054064035</v>
       </c>
       <c r="M49" s="0" t="n">
         <v>0</v>
@@ -13133,7 +13535,7 @@
       </c>
       <c r="L50" s="0" t="n">
         <f aca="false">SUM(B50:K50)</f>
-        <v>-0.316727887139423</v>
+        <v>-0.316727887139425</v>
       </c>
       <c r="M50" s="0" t="n">
         <v>0</v>
@@ -13175,7 +13577,7 @@
       </c>
       <c r="L51" s="0" t="n">
         <f aca="false">SUM(B51:K51)</f>
-        <v>-0.367752053425497</v>
+        <v>-0.367752053425498</v>
       </c>
       <c r="M51" s="0" t="n">
         <v>1</v>
@@ -13217,7 +13619,7 @@
       </c>
       <c r="L52" s="0" t="n">
         <f aca="false">SUM(B52:K52)</f>
-        <v>-0.367752053425497</v>
+        <v>-0.367752053425498</v>
       </c>
       <c r="M52" s="0" t="n">
         <v>0</v>
@@ -13259,7 +13661,7 @@
       </c>
       <c r="L53" s="0" t="n">
         <f aca="false">SUM(B53:K53)</f>
-        <v>-0.367752053425497</v>
+        <v>-0.367752053425498</v>
       </c>
       <c r="M53" s="0" t="n">
         <v>0</v>
@@ -13301,7 +13703,7 @@
       </c>
       <c r="L54" s="0" t="n">
         <f aca="false">SUM(B54:K54)</f>
-        <v>-0.382480489273355</v>
+        <v>-0.382480489273356</v>
       </c>
       <c r="M54" s="0" t="n">
         <v>0</v>
@@ -13343,7 +13745,7 @@
       </c>
       <c r="L55" s="0" t="n">
         <f aca="false">SUM(B55:K55)</f>
-        <v>-0.382480489273355</v>
+        <v>-0.382480489273356</v>
       </c>
       <c r="M55" s="0" t="n">
         <v>0</v>
@@ -13469,7 +13871,7 @@
       </c>
       <c r="L58" s="0" t="n">
         <f aca="false">SUM(B58:K58)</f>
-        <v>-0.420845613154982</v>
+        <v>-0.420845613154983</v>
       </c>
       <c r="M58" s="0" t="n">
         <v>0</v>
@@ -13511,7 +13913,7 @@
       </c>
       <c r="L59" s="0" t="n">
         <f aca="false">SUM(B59:K59)</f>
-        <v>-0.425438071354849</v>
+        <v>-0.42543807135485</v>
       </c>
       <c r="M59" s="0" t="n">
         <v>0</v>
@@ -13553,7 +13955,7 @@
       </c>
       <c r="L60" s="0" t="n">
         <f aca="false">SUM(B60:K60)</f>
-        <v>-0.43557404900284</v>
+        <v>-0.435574049002841</v>
       </c>
       <c r="M60" s="0" t="n">
         <v>0</v>
@@ -13637,7 +14039,7 @@
       </c>
       <c r="L62" s="0" t="n">
         <f aca="false">SUM(B62:K62)</f>
-        <v>-0.5607473947505</v>
+        <v>-0.560747394750501</v>
       </c>
       <c r="M62" s="0" t="n">
         <v>0</v>
@@ -13889,7 +14291,7 @@
       </c>
       <c r="L68" s="0" t="n">
         <f aca="false">SUM(B68:K68)</f>
-        <v>-0.660569436300293</v>
+        <v>-0.660569436300294</v>
       </c>
       <c r="M68" s="0" t="n">
         <v>0</v>
@@ -13931,7 +14333,7 @@
       </c>
       <c r="L69" s="0" t="n">
         <f aca="false">SUM(B69:K69)</f>
-        <v>-0.660569436300293</v>
+        <v>-0.660569436300294</v>
       </c>
       <c r="M69" s="0" t="n">
         <v>0</v>
@@ -13973,7 +14375,7 @@
       </c>
       <c r="L70" s="0" t="n">
         <f aca="false">SUM(B70:K70)</f>
-        <v>-0.660569436300293</v>
+        <v>-0.660569436300294</v>
       </c>
       <c r="M70" s="0" t="n">
         <v>0</v>
@@ -14015,7 +14417,7 @@
       </c>
       <c r="L71" s="0" t="n">
         <f aca="false">SUM(B71:K71)</f>
-        <v>-0.660569436300293</v>
+        <v>-0.660569436300294</v>
       </c>
       <c r="M71" s="0" t="n">
         <v>1</v>
@@ -14057,7 +14459,7 @@
       </c>
       <c r="L72" s="0" t="n">
         <f aca="false">SUM(B72:K72)</f>
-        <v>-0.671491075576248</v>
+        <v>-0.671491075576249</v>
       </c>
       <c r="M72" s="0" t="n">
         <v>0</v>
@@ -14141,7 +14543,7 @@
       </c>
       <c r="L74" s="0" t="n">
         <f aca="false">SUM(B74:K74)</f>
-        <v>-0.713662996029778</v>
+        <v>-0.713662996029779</v>
       </c>
       <c r="M74" s="0" t="n">
         <v>1</v>
@@ -14183,7 +14585,7 @@
       </c>
       <c r="L75" s="0" t="n">
         <f aca="false">SUM(B75:K75)</f>
-        <v>-0.777518173526696</v>
+        <v>-0.777518173526697</v>
       </c>
       <c r="M75" s="0" t="n">
         <v>0</v>
@@ -14225,7 +14627,7 @@
       </c>
       <c r="L76" s="0" t="n">
         <f aca="false">SUM(B76:K76)</f>
-        <v>-0.777518173526696</v>
+        <v>-0.777518173526697</v>
       </c>
       <c r="M76" s="0" t="n">
         <v>1</v>
@@ -14393,7 +14795,7 @@
       </c>
       <c r="L80" s="0" t="n">
         <f aca="false">SUM(B80:K80)</f>
-        <v>-0.81575665418356</v>
+        <v>-0.815756654183561</v>
       </c>
       <c r="M80" s="0" t="n">
         <v>0</v>
@@ -14435,7 +14837,7 @@
       </c>
       <c r="L81" s="0" t="n">
         <f aca="false">SUM(B81:K81)</f>
-        <v>-0.868850213913045</v>
+        <v>-0.868850213913046</v>
       </c>
       <c r="M81" s="0" t="n">
         <v>0</v>
@@ -14477,7 +14879,7 @@
       </c>
       <c r="L82" s="0" t="n">
         <f aca="false">SUM(B82:K82)</f>
-        <v>-0.868850213913045</v>
+        <v>-0.868850213913046</v>
       </c>
       <c r="M82" s="0" t="n">
         <v>0</v>
@@ -14519,7 +14921,7 @@
       </c>
       <c r="L83" s="0" t="n">
         <f aca="false">SUM(B83:K83)</f>
-        <v>-0.868850213913045</v>
+        <v>-0.868850213913046</v>
       </c>
       <c r="M83" s="0" t="n">
         <v>0</v>
@@ -14561,7 +14963,7 @@
       </c>
       <c r="L84" s="0" t="n">
         <f aca="false">SUM(B84:K84)</f>
-        <v>-0.895141683438126</v>
+        <v>-0.895141683438127</v>
       </c>
       <c r="M84" s="0" t="n">
         <v>1</v>
@@ -14603,7 +15005,7 @@
       </c>
       <c r="L85" s="0" t="n">
         <f aca="false">SUM(B85:K85)</f>
-        <v>-0.895141683438126</v>
+        <v>-0.895141683438127</v>
       </c>
       <c r="M85" s="0" t="n">
         <v>0</v>
@@ -14645,7 +15047,7 @@
       </c>
       <c r="L86" s="0" t="n">
         <f aca="false">SUM(B86:K86)</f>
-        <v>-0.895141683438126</v>
+        <v>-0.895141683438127</v>
       </c>
       <c r="M86" s="0" t="n">
         <v>0</v>
@@ -14687,7 +15089,7 @@
       </c>
       <c r="L87" s="0" t="n">
         <f aca="false">SUM(B87:K87)</f>
-        <v>-0.895141683438126</v>
+        <v>-0.895141683438127</v>
       </c>
       <c r="M87" s="0" t="n">
         <v>0</v>
@@ -14729,7 +15131,7 @@
       </c>
       <c r="L88" s="0" t="n">
         <f aca="false">SUM(B88:K88)</f>
-        <v>-0.948235243167611</v>
+        <v>-0.948235243167612</v>
       </c>
       <c r="M88" s="0" t="n">
         <v>0</v>
@@ -14771,7 +15173,7 @@
       </c>
       <c r="L89" s="0" t="n">
         <f aca="false">SUM(B89:K89)</f>
-        <v>-0.948235243167611</v>
+        <v>-0.948235243167612</v>
       </c>
       <c r="M89" s="0" t="n">
         <v>0</v>
@@ -14813,7 +15215,7 @@
       </c>
       <c r="L90" s="0" t="n">
         <f aca="false">SUM(B90:K90)</f>
-        <v>-0.948235243167611</v>
+        <v>-0.948235243167612</v>
       </c>
       <c r="M90" s="0" t="n">
         <v>0</v>
@@ -14855,7 +15257,7 @@
       </c>
       <c r="L91" s="0" t="n">
         <f aca="false">SUM(B91:K91)</f>
-        <v>-0.948235243167611</v>
+        <v>-0.948235243167612</v>
       </c>
       <c r="M91" s="0" t="n">
         <v>0</v>
@@ -14897,7 +15299,7 @@
       </c>
       <c r="L92" s="0" t="n">
         <f aca="false">SUM(B92:K92)</f>
-        <v>-0.948235243167611</v>
+        <v>-0.948235243167612</v>
       </c>
       <c r="M92" s="0" t="n">
         <v>0</v>
@@ -14939,7 +15341,7 @@
       </c>
       <c r="L93" s="0" t="n">
         <f aca="false">SUM(B93:K93)</f>
-        <v>-0.948235243167611</v>
+        <v>-0.948235243167612</v>
       </c>
       <c r="M93" s="0" t="n">
         <v>1</v>
@@ -14981,7 +15383,7 @@
       </c>
       <c r="L94" s="0" t="n">
         <f aca="false">SUM(B94:K94)</f>
-        <v>-0.948235243167611</v>
+        <v>-0.948235243167612</v>
       </c>
       <c r="M94" s="0" t="n">
         <v>0</v>
@@ -15023,7 +15425,7 @@
       </c>
       <c r="L95" s="0" t="n">
         <f aca="false">SUM(B95:K95)</f>
-        <v>-0.948235243167611</v>
+        <v>-0.948235243167612</v>
       </c>
       <c r="M95" s="0" t="n">
         <v>1</v>
@@ -15065,7 +15467,7 @@
       </c>
       <c r="L96" s="0" t="n">
         <f aca="false">SUM(B96:K96)</f>
-        <v>-0.958996860935044</v>
+        <v>-0.958996860935045</v>
       </c>
       <c r="M96" s="0" t="n">
         <v>0</v>
@@ -15107,7 +15509,7 @@
       </c>
       <c r="L97" s="0" t="n">
         <f aca="false">SUM(B97:K97)</f>
-        <v>-0.975233997655253</v>
+        <v>-0.975233997655255</v>
       </c>
       <c r="M97" s="0" t="n">
         <v>0</v>
@@ -15317,7 +15719,7 @@
       </c>
       <c r="L102" s="0" t="n">
         <f aca="false">SUM(B102:K102)</f>
-        <v>-1.09147544991909</v>
+        <v>-1.0914754499191</v>
       </c>
       <c r="M102" s="0" t="n">
         <v>0</v>
@@ -15359,7 +15761,7 @@
       </c>
       <c r="L103" s="0" t="n">
         <f aca="false">SUM(B103:K103)</f>
-        <v>-1.09147544991909</v>
+        <v>-1.0914754499191</v>
       </c>
       <c r="M103" s="0" t="n">
         <v>0</v>
@@ -15401,7 +15803,7 @@
       </c>
       <c r="L104" s="0" t="n">
         <f aca="false">SUM(B104:K104)</f>
-        <v>-1.09147544991909</v>
+        <v>-1.0914754499191</v>
       </c>
       <c r="M104" s="0" t="n">
         <v>1</v>
@@ -15443,7 +15845,7 @@
       </c>
       <c r="L105" s="0" t="n">
         <f aca="false">SUM(B105:K105)</f>
-        <v>-1.09147544991909</v>
+        <v>-1.0914754499191</v>
       </c>
       <c r="M105" s="0" t="n">
         <v>0</v>
@@ -15485,7 +15887,7 @@
       </c>
       <c r="L106" s="0" t="n">
         <f aca="false">SUM(B106:K106)</f>
-        <v>-1.09147544991909</v>
+        <v>-1.0914754499191</v>
       </c>
       <c r="M106" s="0" t="n">
         <v>0</v>
@@ -15527,7 +15929,7 @@
       </c>
       <c r="L107" s="0" t="n">
         <f aca="false">SUM(B107:K107)</f>
-        <v>-1.09147544991909</v>
+        <v>-1.0914754499191</v>
       </c>
       <c r="M107" s="0" t="n">
         <v>0</v>
@@ -15569,7 +15971,7 @@
       </c>
       <c r="L108" s="0" t="n">
         <f aca="false">SUM(B108:K108)</f>
-        <v>-1.09147544991909</v>
+        <v>-1.0914754499191</v>
       </c>
       <c r="M108" s="0" t="n">
         <v>0</v>
@@ -15611,7 +16013,7 @@
       </c>
       <c r="L109" s="0" t="n">
         <f aca="false">SUM(B109:K109)</f>
-        <v>-1.19605168899694</v>
+        <v>-1.19605168899695</v>
       </c>
       <c r="M109" s="0" t="n">
         <v>0</v>
@@ -15846,12 +16248,12 @@
   <dimension ref="A1:T114"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
+      <selection pane="topLeft" activeCell="P12" activeCellId="0" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15931,7 +16333,7 @@
       </c>
       <c r="L2" s="0" t="n">
         <f aca="false">SUM(B2:K2)</f>
-        <v>2.53943447924958</v>
+        <v>2.53943447924957</v>
       </c>
       <c r="M2" s="0" t="n">
         <v>1</v>
@@ -16387,7 +16789,7 @@
       </c>
       <c r="L11" s="0" t="n">
         <f aca="false">SUM(B11:K11)</f>
-        <v>0.638602018790029</v>
+        <v>0.638602018790028</v>
       </c>
       <c r="M11" s="0" t="n">
         <v>1</v>
@@ -16438,7 +16840,7 @@
       </c>
       <c r="L12" s="0" t="n">
         <f aca="false">SUM(B12:K12)</f>
-        <v>0.54739492983582</v>
+        <v>0.547394929835821</v>
       </c>
       <c r="M12" s="0" t="n">
         <v>0</v>
@@ -16491,7 +16893,7 @@
       </c>
       <c r="L13" s="0" t="n">
         <f aca="false">SUM(B13:K13)</f>
-        <v>0.54182567440985</v>
+        <v>0.541825674409851</v>
       </c>
       <c r="M13" s="0" t="n">
         <v>1</v>
@@ -16544,7 +16946,7 @@
       </c>
       <c r="L14" s="0" t="n">
         <f aca="false">SUM(B14:K14)</f>
-        <v>0.516411384315852</v>
+        <v>0.516411384315853</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>1</v>
@@ -16650,7 +17052,7 @@
       </c>
       <c r="L16" s="0" t="n">
         <f aca="false">SUM(B16:K16)</f>
-        <v>0.476402588862545</v>
+        <v>0.476402588862546</v>
       </c>
       <c r="M16" s="0" t="n">
         <v>1</v>
@@ -17220,7 +17622,7 @@
       </c>
       <c r="L28" s="0" t="n">
         <f aca="false">SUM(B28:K28)</f>
-        <v>0.125703982014106</v>
+        <v>0.125703982014107</v>
       </c>
       <c r="M28" s="0" t="n">
         <v>0</v>
@@ -17262,7 +17664,7 @@
       </c>
       <c r="L29" s="0" t="n">
         <f aca="false">SUM(B29:K29)</f>
-        <v>0.0974369995913319</v>
+        <v>0.0974369995913317</v>
       </c>
       <c r="M29" s="0" t="n">
         <v>0</v>
@@ -17346,7 +17748,7 @@
       </c>
       <c r="L31" s="0" t="n">
         <f aca="false">SUM(B31:K31)</f>
-        <v>0.0324486793226484</v>
+        <v>0.0324486793226482</v>
       </c>
       <c r="M31" s="0" t="n">
         <v>0</v>
@@ -17388,7 +17790,7 @@
       </c>
       <c r="L32" s="0" t="n">
         <f aca="false">SUM(B32:K32)</f>
-        <v>0.0324486793226484</v>
+        <v>0.0324486793226482</v>
       </c>
       <c r="M32" s="0" t="n">
         <v>0</v>
@@ -17430,7 +17832,7 @@
       </c>
       <c r="L33" s="0" t="n">
         <f aca="false">SUM(B33:K33)</f>
-        <v>0.0320139140440266</v>
+        <v>0.0320139140440264</v>
       </c>
       <c r="M33" s="0" t="n">
         <v>1</v>
@@ -17472,7 +17874,7 @@
       </c>
       <c r="L34" s="0" t="n">
         <f aca="false">SUM(B34:K34)</f>
-        <v>1.65051238924241E-005</v>
+        <v>1.6505123893007E-005</v>
       </c>
       <c r="M34" s="0" t="n">
         <v>0</v>
@@ -17556,7 +17958,7 @@
       </c>
       <c r="L36" s="0" t="n">
         <f aca="false">SUM(B36:K36)</f>
-        <v>-0.0654065804234128</v>
+        <v>-0.0654065804234123</v>
       </c>
       <c r="M36" s="0" t="n">
         <v>0</v>
@@ -17598,7 +18000,7 @@
       </c>
       <c r="L37" s="0" t="n">
         <f aca="false">SUM(B37:K37)</f>
-        <v>-0.0654065804234128</v>
+        <v>-0.0654065804234123</v>
       </c>
       <c r="M37" s="0" t="n">
         <v>0</v>
@@ -17640,7 +18042,7 @@
       </c>
       <c r="L38" s="0" t="n">
         <f aca="false">SUM(B38:K38)</f>
-        <v>-0.0654065804234128</v>
+        <v>-0.0654065804234123</v>
       </c>
       <c r="M38" s="0" t="n">
         <v>0</v>
@@ -17682,7 +18084,7 @@
       </c>
       <c r="L39" s="0" t="n">
         <f aca="false">SUM(B39:K39)</f>
-        <v>-0.0654065804234128</v>
+        <v>-0.0654065804234123</v>
       </c>
       <c r="M39" s="0" t="n">
         <v>0</v>
@@ -17724,7 +18126,7 @@
       </c>
       <c r="L40" s="0" t="n">
         <f aca="false">SUM(B40:K40)</f>
-        <v>-0.0654065804234128</v>
+        <v>-0.0654065804234123</v>
       </c>
       <c r="M40" s="0" t="n">
         <v>0</v>
@@ -17766,7 +18168,7 @@
       </c>
       <c r="L41" s="0" t="n">
         <f aca="false">SUM(B41:K41)</f>
-        <v>-0.0721896835471086</v>
+        <v>-0.0721896835471082</v>
       </c>
       <c r="M41" s="0" t="n">
         <v>0</v>
@@ -18102,7 +18504,7 @@
       </c>
       <c r="L49" s="0" t="n">
         <f aca="false">SUM(B49:K49)</f>
-        <v>-0.168596314614381</v>
+        <v>-0.168596314614382</v>
       </c>
       <c r="M49" s="0" t="n">
         <v>0</v>
@@ -18144,7 +18546,7 @@
       </c>
       <c r="L50" s="0" t="n">
         <f aca="false">SUM(B50:K50)</f>
-        <v>-0.203745051910331</v>
+        <v>-0.20374505191033</v>
       </c>
       <c r="M50" s="0" t="n">
         <v>0</v>
@@ -18186,7 +18588,7 @@
       </c>
       <c r="L51" s="0" t="n">
         <f aca="false">SUM(B51:K51)</f>
-        <v>-0.266016809081821</v>
+        <v>-0.26601680908182</v>
       </c>
       <c r="M51" s="0" t="n">
         <v>0</v>
@@ -18228,7 +18630,7 @@
       </c>
       <c r="L52" s="0" t="n">
         <f aca="false">SUM(B52:K52)</f>
-        <v>-0.266016809081821</v>
+        <v>-0.26601680908182</v>
       </c>
       <c r="M52" s="0" t="n">
         <v>0</v>
@@ -18396,7 +18798,7 @@
       </c>
       <c r="L56" s="0" t="n">
         <f aca="false">SUM(B56:K56)</f>
-        <v>-0.318073296953238</v>
+        <v>-0.318073296953239</v>
       </c>
       <c r="M56" s="0" t="n">
         <v>0</v>
@@ -18732,7 +19134,7 @@
       </c>
       <c r="L64" s="0" t="n">
         <f aca="false">SUM(B64:K64)</f>
-        <v>-0.413388624174659</v>
+        <v>-0.413388624174658</v>
       </c>
       <c r="M64" s="0" t="n">
         <v>0</v>
@@ -18774,7 +19176,7 @@
       </c>
       <c r="L65" s="0" t="n">
         <f aca="false">SUM(B65:K65)</f>
-        <v>-0.413388624174659</v>
+        <v>-0.413388624174658</v>
       </c>
       <c r="M65" s="0" t="n">
         <v>0</v>
@@ -18816,7 +19218,7 @@
       </c>
       <c r="L66" s="0" t="n">
         <f aca="false">SUM(B66:K66)</f>
-        <v>-0.413388624174659</v>
+        <v>-0.413388624174658</v>
       </c>
       <c r="M66" s="0" t="n">
         <v>0</v>
@@ -18858,7 +19260,7 @@
       </c>
       <c r="L67" s="0" t="n">
         <f aca="false">SUM(B67:K67)</f>
-        <v>-0.413388624174659</v>
+        <v>-0.413388624174658</v>
       </c>
       <c r="M67" s="0" t="n">
         <v>0</v>
@@ -18900,7 +19302,7 @@
       </c>
       <c r="L68" s="0" t="n">
         <f aca="false">SUM(B68:K68)</f>
-        <v>-0.413388624174659</v>
+        <v>-0.413388624174658</v>
       </c>
       <c r="M68" s="0" t="n">
         <v>0</v>
@@ -18942,7 +19344,7 @@
       </c>
       <c r="L69" s="0" t="n">
         <f aca="false">SUM(B69:K69)</f>
-        <v>-0.472807689017373</v>
+        <v>-0.472807689017372</v>
       </c>
       <c r="M69" s="0" t="n">
         <v>0</v>
@@ -19152,7 +19554,7 @@
       </c>
       <c r="L74" s="0" t="n">
         <f aca="false">SUM(B74:K74)</f>
-        <v>-0.479455859809225</v>
+        <v>-0.479455859809226</v>
       </c>
       <c r="M74" s="0" t="n">
         <v>0</v>
@@ -19740,7 +20142,7 @@
       </c>
       <c r="L88" s="0" t="n">
         <f aca="false">SUM(B88:K88)</f>
-        <v>-0.715068649043619</v>
+        <v>-0.715068649043618</v>
       </c>
       <c r="M88" s="0" t="n">
         <v>0</v>
@@ -20244,7 +20646,7 @@
       </c>
       <c r="L100" s="0" t="n">
         <f aca="false">SUM(B100:K100)</f>
-        <v>-0.950994575670444</v>
+        <v>-0.950994575670443</v>
       </c>
       <c r="M100" s="0" t="n">
         <v>1</v>
@@ -20496,7 +20898,7 @@
       </c>
       <c r="L106" s="0" t="n">
         <f aca="false">SUM(B106:K106)</f>
-        <v>-1.67761266784872</v>
+        <v>-1.67761266784871</v>
       </c>
       <c r="M106" s="0" t="n">
         <v>0</v>
@@ -20857,12 +21259,12 @@
   <dimension ref="A1:T114"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S28" activeCellId="0" sqref="S28"/>
+      <selection pane="topLeft" activeCell="P12" activeCellId="0" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21502,7 +21904,7 @@
       </c>
       <c r="L13" s="0" t="n">
         <f aca="false">SUM(B13:K13)</f>
-        <v>0.952596134731478</v>
+        <v>0.952596134731479</v>
       </c>
       <c r="M13" s="0" t="n">
         <v>1</v>
@@ -21555,7 +21957,7 @@
       </c>
       <c r="L14" s="0" t="n">
         <f aca="false">SUM(B14:K14)</f>
-        <v>0.952596134731478</v>
+        <v>0.952596134731479</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>0</v>
@@ -21608,7 +22010,7 @@
       </c>
       <c r="L15" s="0" t="n">
         <f aca="false">SUM(B15:K15)</f>
-        <v>0.860571789494477</v>
+        <v>0.860571789494478</v>
       </c>
       <c r="M15" s="0" t="n">
         <v>0</v>
@@ -21714,7 +22116,7 @@
       </c>
       <c r="L17" s="0" t="n">
         <f aca="false">SUM(B17:K17)</f>
-        <v>0.812749068484781</v>
+        <v>0.812749068484784</v>
       </c>
       <c r="M17" s="0" t="n">
         <v>0</v>
@@ -21767,7 +22169,7 @@
       </c>
       <c r="L18" s="0" t="n">
         <f aca="false">SUM(B18:K18)</f>
-        <v>0.791528323494126</v>
+        <v>0.791528323494125</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>0</v>
@@ -22021,7 +22423,7 @@
       </c>
       <c r="L23" s="0" t="n">
         <f aca="false">SUM(B23:K23)</f>
-        <v>0.647491262376355</v>
+        <v>0.647491262376356</v>
       </c>
       <c r="M23" s="0" t="n">
         <v>0</v>
@@ -22189,7 +22591,7 @@
       </c>
       <c r="L27" s="0" t="n">
         <f aca="false">SUM(B27:K27)</f>
-        <v>0.57831518702916</v>
+        <v>0.578315187029159</v>
       </c>
       <c r="M27" s="0" t="n">
         <v>1</v>
@@ -22231,7 +22633,7 @@
       </c>
       <c r="L28" s="0" t="n">
         <f aca="false">SUM(B28:K28)</f>
-        <v>0.493508345538269</v>
+        <v>0.493508345538268</v>
       </c>
       <c r="M28" s="0" t="n">
         <v>1</v>
@@ -22273,7 +22675,7 @@
       </c>
       <c r="L29" s="0" t="n">
         <f aca="false">SUM(B29:K29)</f>
-        <v>0.469122159810627</v>
+        <v>0.469122159810628</v>
       </c>
       <c r="M29" s="0" t="n">
         <v>0</v>
@@ -22315,7 +22717,7 @@
       </c>
       <c r="L30" s="0" t="n">
         <f aca="false">SUM(B30:K30)</f>
-        <v>0.455274444375485</v>
+        <v>0.455274444375486</v>
       </c>
       <c r="M30" s="0" t="n">
         <v>1</v>
@@ -22567,7 +22969,7 @@
       </c>
       <c r="L36" s="0" t="n">
         <f aca="false">SUM(B36:K36)</f>
-        <v>0.0969300246737581</v>
+        <v>0.0969300246737586</v>
       </c>
       <c r="M36" s="0" t="n">
         <v>0</v>
@@ -22609,7 +23011,7 @@
       </c>
       <c r="L37" s="0" t="n">
         <f aca="false">SUM(B37:K37)</f>
-        <v>0.0811052932842242</v>
+        <v>0.0811052932842248</v>
       </c>
       <c r="M37" s="0" t="n">
         <v>0</v>
@@ -22651,7 +23053,7 @@
       </c>
       <c r="L38" s="0" t="n">
         <f aca="false">SUM(B38:K38)</f>
-        <v>0.0574075018544011</v>
+        <v>0.0574075018544016</v>
       </c>
       <c r="M38" s="0" t="n">
         <v>0</v>
@@ -22693,7 +23095,7 @@
       </c>
       <c r="L39" s="0" t="n">
         <f aca="false">SUM(B39:K39)</f>
-        <v>0.0542858230689562</v>
+        <v>0.0542858230689556</v>
       </c>
       <c r="M39" s="0" t="n">
         <v>0</v>
@@ -22735,7 +23137,7 @@
       </c>
       <c r="L40" s="0" t="n">
         <f aca="false">SUM(B40:K40)</f>
-        <v>0.0542858230689562</v>
+        <v>0.0542858230689556</v>
       </c>
       <c r="M40" s="0" t="n">
         <v>1</v>
@@ -22777,7 +23179,7 @@
       </c>
       <c r="L41" s="0" t="n">
         <f aca="false">SUM(B41:K41)</f>
-        <v>0.0305880316391331</v>
+        <v>0.0305880316391325</v>
       </c>
       <c r="M41" s="0" t="n">
         <v>0</v>
@@ -22819,7 +23221,7 @@
       </c>
       <c r="L42" s="0" t="n">
         <f aca="false">SUM(B42:K42)</f>
-        <v>-0.0237050507275292</v>
+        <v>-0.0237050507275295</v>
       </c>
       <c r="M42" s="0" t="n">
         <v>1</v>
@@ -22861,7 +23263,7 @@
       </c>
       <c r="L43" s="0" t="n">
         <f aca="false">SUM(B43:K43)</f>
-        <v>-0.0306536277687782</v>
+        <v>-0.0306536277687778</v>
       </c>
       <c r="M43" s="0" t="n">
         <v>1</v>
@@ -22903,7 +23305,7 @@
       </c>
       <c r="L44" s="0" t="n">
         <f aca="false">SUM(B44:K44)</f>
-        <v>-0.0375527661626715</v>
+        <v>-0.0375527661626716</v>
       </c>
       <c r="M44" s="0" t="n">
         <v>1</v>
@@ -22945,7 +23347,7 @@
       </c>
       <c r="L45" s="0" t="n">
         <f aca="false">SUM(B45:K45)</f>
-        <v>-0.0543514191986013</v>
+        <v>-0.0543514191986009</v>
       </c>
       <c r="M45" s="0" t="n">
         <v>0</v>
@@ -22987,7 +23389,7 @@
       </c>
       <c r="L46" s="0" t="n">
         <f aca="false">SUM(B46:K46)</f>
-        <v>-0.0543514191986013</v>
+        <v>-0.0543514191986009</v>
       </c>
       <c r="M46" s="0" t="n">
         <v>0</v>
@@ -23029,7 +23431,7 @@
       </c>
       <c r="L47" s="0" t="n">
         <f aca="false">SUM(B47:K47)</f>
-        <v>-0.108644501565264</v>
+        <v>-0.108644501565263</v>
       </c>
       <c r="M47" s="0" t="n">
         <v>0</v>
@@ -23071,7 +23473,7 @@
       </c>
       <c r="L48" s="0" t="n">
         <f aca="false">SUM(B48:K48)</f>
-        <v>-0.131975233833899</v>
+        <v>-0.131975233833898</v>
       </c>
       <c r="M48" s="0" t="n">
         <v>0</v>
@@ -23575,7 +23977,7 @@
       </c>
       <c r="L60" s="0" t="n">
         <f aca="false">SUM(B60:K60)</f>
-        <v>-0.248200008793167</v>
+        <v>-0.248200008793166</v>
       </c>
       <c r="M60" s="0" t="n">
         <v>1</v>
@@ -23659,7 +24061,7 @@
       </c>
       <c r="L62" s="0" t="n">
         <f aca="false">SUM(B62:K62)</f>
-        <v>-0.281968056049684</v>
+        <v>-0.281968056049683</v>
       </c>
       <c r="M62" s="0" t="n">
         <v>0</v>
@@ -23827,7 +24229,7 @@
       </c>
       <c r="L66" s="0" t="n">
         <f aca="false">SUM(B66:K66)</f>
-        <v>-0.338459973089629</v>
+        <v>-0.338459973089628</v>
       </c>
       <c r="M66" s="0" t="n">
         <v>0</v>
@@ -23869,7 +24271,7 @@
       </c>
       <c r="L67" s="0" t="n">
         <f aca="false">SUM(B67:K67)</f>
-        <v>-0.338459973089629</v>
+        <v>-0.338459973089628</v>
       </c>
       <c r="M67" s="0" t="n">
         <v>0</v>
@@ -23911,7 +24313,7 @@
       </c>
       <c r="L68" s="0" t="n">
         <f aca="false">SUM(B68:K68)</f>
-        <v>-0.348310049084309</v>
+        <v>-0.34831004908431</v>
       </c>
       <c r="M68" s="0" t="n">
         <v>0</v>
@@ -23953,7 +24355,7 @@
       </c>
       <c r="L69" s="0" t="n">
         <f aca="false">SUM(B69:K69)</f>
-        <v>-0.378905340021149</v>
+        <v>-0.378905340021148</v>
       </c>
       <c r="M69" s="0" t="n">
         <v>1</v>
@@ -23995,7 +24397,7 @@
       </c>
       <c r="L70" s="0" t="n">
         <f aca="false">SUM(B70:K70)</f>
-        <v>-0.378905340021149</v>
+        <v>-0.378905340021148</v>
       </c>
       <c r="M70" s="0" t="n">
         <v>0</v>
@@ -24037,7 +24439,7 @@
       </c>
       <c r="L71" s="0" t="n">
         <f aca="false">SUM(B71:K71)</f>
-        <v>-0.378905340021149</v>
+        <v>-0.378905340021148</v>
       </c>
       <c r="M71" s="0" t="n">
         <v>0</v>
@@ -24079,7 +24481,7 @@
       </c>
       <c r="L72" s="0" t="n">
         <f aca="false">SUM(B72:K72)</f>
-        <v>-0.392753055456291</v>
+        <v>-0.39275305545629</v>
       </c>
       <c r="M72" s="0" t="n">
         <v>1</v>
@@ -24163,7 +24565,7 @@
       </c>
       <c r="L74" s="0" t="n">
         <f aca="false">SUM(B74:K74)</f>
-        <v>-0.419360527479877</v>
+        <v>-0.419360527479876</v>
       </c>
       <c r="M74" s="0" t="n">
         <v>0</v>
@@ -24289,7 +24691,7 @@
       </c>
       <c r="L77" s="0" t="n">
         <f aca="false">SUM(B77:K77)</f>
-        <v>-0.610815796959449</v>
+        <v>-0.610815796959448</v>
       </c>
       <c r="M77" s="0" t="n">
         <v>0</v>
@@ -24331,7 +24733,7 @@
       </c>
       <c r="L78" s="0" t="n">
         <f aca="false">SUM(B78:K78)</f>
-        <v>-0.696804392791356</v>
+        <v>-0.696804392791355</v>
       </c>
       <c r="M78" s="0" t="n">
         <v>0</v>
@@ -24373,7 +24775,7 @@
       </c>
       <c r="L79" s="0" t="n">
         <f aca="false">SUM(B79:K79)</f>
-        <v>-0.696804392791356</v>
+        <v>-0.696804392791355</v>
       </c>
       <c r="M79" s="0" t="n">
         <v>0</v>
@@ -24415,7 +24817,7 @@
       </c>
       <c r="L80" s="0" t="n">
         <f aca="false">SUM(B80:K80)</f>
-        <v>-0.696804392791356</v>
+        <v>-0.696804392791355</v>
       </c>
       <c r="M80" s="0" t="n">
         <v>0</v>
@@ -24457,7 +24859,7 @@
       </c>
       <c r="L81" s="0" t="n">
         <f aca="false">SUM(B81:K81)</f>
-        <v>-0.696804392791356</v>
+        <v>-0.696804392791355</v>
       </c>
       <c r="M81" s="0" t="n">
         <v>0</v>
@@ -24583,7 +24985,7 @@
       </c>
       <c r="L84" s="0" t="n">
         <f aca="false">SUM(B84:K84)</f>
-        <v>-0.774560816773496</v>
+        <v>-0.774560816773495</v>
       </c>
       <c r="M84" s="0" t="n">
         <v>0</v>
@@ -24625,7 +25027,7 @@
       </c>
       <c r="L85" s="0" t="n">
         <f aca="false">SUM(B85:K85)</f>
-        <v>-0.886319737826499</v>
+        <v>-0.886319737826498</v>
       </c>
       <c r="M85" s="0" t="n">
         <v>0</v>
@@ -24667,7 +25069,7 @@
       </c>
       <c r="L86" s="0" t="n">
         <f aca="false">SUM(B86:K86)</f>
-        <v>-0.886319737826499</v>
+        <v>-0.886319737826498</v>
       </c>
       <c r="M86" s="0" t="n">
         <v>1</v>
@@ -24709,7 +25111,7 @@
       </c>
       <c r="L87" s="0" t="n">
         <f aca="false">SUM(B87:K87)</f>
-        <v>-0.886319737826499</v>
+        <v>-0.886319737826498</v>
       </c>
       <c r="M87" s="0" t="n">
         <v>0</v>
@@ -24751,7 +25153,7 @@
       </c>
       <c r="L88" s="0" t="n">
         <f aca="false">SUM(B88:K88)</f>
-        <v>-0.886319737826499</v>
+        <v>-0.886319737826498</v>
       </c>
       <c r="M88" s="0" t="n">
         <v>0</v>
@@ -24793,7 +25195,7 @@
       </c>
       <c r="L89" s="0" t="n">
         <f aca="false">SUM(B89:K89)</f>
-        <v>-0.910017529256322</v>
+        <v>-0.910017529256321</v>
       </c>
       <c r="M89" s="0" t="n">
         <v>0</v>
@@ -24835,7 +25237,7 @@
       </c>
       <c r="L90" s="0" t="n">
         <f aca="false">SUM(B90:K90)</f>
-        <v>-0.910017529256322</v>
+        <v>-0.910017529256321</v>
       </c>
       <c r="M90" s="0" t="n">
         <v>0</v>
@@ -24877,7 +25279,7 @@
       </c>
       <c r="L91" s="0" t="n">
         <f aca="false">SUM(B91:K91)</f>
-        <v>-0.910017529256322</v>
+        <v>-0.910017529256321</v>
       </c>
       <c r="M91" s="0" t="n">
         <v>0</v>
@@ -24961,7 +25363,7 @@
       </c>
       <c r="L93" s="0" t="n">
         <f aca="false">SUM(B93:K93)</f>
-        <v>-0.938081095638751</v>
+        <v>-0.93808109563875</v>
       </c>
       <c r="M93" s="0" t="n">
         <v>0</v>
@@ -25003,7 +25405,7 @@
       </c>
       <c r="L94" s="0" t="n">
         <f aca="false">SUM(B94:K94)</f>
-        <v>-0.940612820193161</v>
+        <v>-0.94061282019316</v>
       </c>
       <c r="M94" s="0" t="n">
         <v>0</v>
@@ -25045,7 +25447,7 @@
       </c>
       <c r="L95" s="0" t="n">
         <f aca="false">SUM(B95:K95)</f>
-        <v>-0.963943552461796</v>
+        <v>-0.963943552461795</v>
       </c>
       <c r="M95" s="0" t="n">
         <v>0</v>
@@ -25801,7 +26203,7 @@
       </c>
       <c r="L113" s="0" t="n">
         <f aca="false">SUM(B113:K113)</f>
-        <v>-1.9501985133927</v>
+        <v>-1.95019851339269</v>
       </c>
       <c r="M113" s="0" t="n">
         <v>0</v>
@@ -25843,7 +26245,7 @@
       </c>
       <c r="L114" s="0" t="n">
         <f aca="false">SUM(B114:K114)</f>
-        <v>-2.139581249081</v>
+        <v>-2.13958124908099</v>
       </c>
       <c r="M114" s="0" t="n">
         <v>0</v>
@@ -25858,4 +26260,488 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:N12"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>2.53097345132743</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1.75221238938053</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>2.14159292035398</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1.84955752212389</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>2.43362831858407</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <f aca="false">AVERAGE(C3,E3,G3,I3,K3)</f>
+        <v>4.6</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <f aca="false">AVERAGE(D3,F3,H3,J3,L3)</f>
+        <v>2.14159292035398</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>2.53097345132743</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1.75221238938053</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>2.14159292035398</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1.84955752212389</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>2.43362831858407</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <f aca="false">AVERAGE(C4,E4,G4,I4,K4)</f>
+        <v>3.8</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <f aca="false">AVERAGE(D4,F4,H4,J4,L4)</f>
+        <v>2.14159292035398</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>2.53097345132743</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1.75221238938053</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>2.14159292035398</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>1.84955752212389</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>2.43362831858407</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <f aca="false">AVERAGE(C5,E5,G5,I5,K5)</f>
+        <v>3.2</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <f aca="false">AVERAGE(D5,F5,H5,J5,L5)</f>
+        <v>2.14159292035398</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>2.53097345132743</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1.75221238938053</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>2.14159292035398</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>1.84955752212389</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>2.43362831858407</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <f aca="false">AVERAGE(C6,E6,G6,I6,K6)</f>
+        <v>2</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <f aca="false">AVERAGE(D6,F6,H6,J6,L6)</f>
+        <v>2.14159292035398</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>2.53097345132743</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1.75221238938053</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>2.14159292035398</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>1.84955752212389</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>2.43362831858407</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <f aca="false">AVERAGE(C7,E7,G7,I7,K7)</f>
+        <v>1.8</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <f aca="false">AVERAGE(D7,F7,H7,J7,L7)</f>
+        <v>2.14159292035398</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>2.53097345132743</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1.75221238938053</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>2.14159292035398</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>1.84955752212389</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>2.43362831858407</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <f aca="false">AVERAGE(C8,E8,G8,I8,K8)</f>
+        <v>2</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <f aca="false">AVERAGE(D8,F8,H8,J8,L8)</f>
+        <v>2.14159292035398</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>2.53097345132743</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1.75221238938053</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>2.14159292035398</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1.84955752212389</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>2.43362831858407</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <f aca="false">AVERAGE(C9,E9,G9,I9,K9)</f>
+        <v>1.6</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <f aca="false">AVERAGE(D9,F9,H9,J9,L9)</f>
+        <v>2.14159292035398</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>2.53097345132743</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1.75221238938053</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>2.14159292035398</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>1.84955752212389</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>2.43362831858407</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <f aca="false">AVERAGE(C10,E10,G10,I10,K10)</f>
+        <v>0.8</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <f aca="false">AVERAGE(D10,F10,H10,J10,L10)</f>
+        <v>2.14159292035398</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>2.53097345132743</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1.75221238938053</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>2.14159292035398</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>1.84955752212389</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>2.43362831858407</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <f aca="false">AVERAGE(C11,E11,G11,I11,K11)</f>
+        <v>1.2</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <f aca="false">AVERAGE(D11,F11,H11,J11,L11)</f>
+        <v>2.14159292035398</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>3.2212389380531</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>2.23008849557522</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>2.72566371681416</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>2.35398230088496</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>3.09734513274336</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <f aca="false">AVERAGE(C12,E12,G12,I12,K12)</f>
+        <v>1</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <f aca="false">AVERAGE(D12,F12,H12,J12,L12)</f>
+        <v>2.72566371681416</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>